--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dll4-Notch1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dll4-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Notch1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.2818759098307</v>
+        <v>38.80310266666667</v>
       </c>
       <c r="H2">
-        <v>38.2818759098307</v>
+        <v>116.409308</v>
       </c>
       <c r="I2">
-        <v>0.990324368430518</v>
+        <v>0.9789895780174939</v>
       </c>
       <c r="J2">
-        <v>0.990324368430518</v>
+        <v>0.9822662217176463</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N2">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O2">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P2">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q2">
-        <v>2057.145978449879</v>
+        <v>2173.566531398405</v>
       </c>
       <c r="R2">
-        <v>2057.145978449879</v>
+        <v>19562.09878258564</v>
       </c>
       <c r="S2">
-        <v>0.4851799496588634</v>
+        <v>0.4781009801195384</v>
       </c>
       <c r="T2">
-        <v>0.4851799496588634</v>
+        <v>0.5144286946680018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.2818759098307</v>
+        <v>38.80310266666667</v>
       </c>
       <c r="H3">
-        <v>38.2818759098307</v>
+        <v>116.409308</v>
       </c>
       <c r="I3">
-        <v>0.990324368430518</v>
+        <v>0.9789895780174939</v>
       </c>
       <c r="J3">
-        <v>0.990324368430518</v>
+        <v>0.9822662217176463</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N3">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P3">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q3">
-        <v>309.2564440050295</v>
+        <v>355.028366999024</v>
       </c>
       <c r="R3">
-        <v>309.2564440050295</v>
+        <v>3195.255302991216</v>
       </c>
       <c r="S3">
-        <v>0.07293844360384318</v>
+        <v>0.07809257631661615</v>
       </c>
       <c r="T3">
-        <v>0.07293844360384318</v>
+        <v>0.08402631194726642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.2818759098307</v>
+        <v>38.80310266666667</v>
       </c>
       <c r="H4">
-        <v>38.2818759098307</v>
+        <v>116.409308</v>
       </c>
       <c r="I4">
-        <v>0.990324368430518</v>
+        <v>0.9789895780174939</v>
       </c>
       <c r="J4">
-        <v>0.990324368430518</v>
+        <v>0.9822662217176463</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N4">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O4">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P4">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q4">
-        <v>401.4629141332967</v>
+        <v>470.64457838362</v>
       </c>
       <c r="R4">
-        <v>401.4629141332967</v>
+        <v>4235.801205452581</v>
       </c>
       <c r="S4">
-        <v>0.09468543239496661</v>
+        <v>0.1035236929547253</v>
       </c>
       <c r="T4">
-        <v>0.09468543239496661</v>
+        <v>0.1113897700452214</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.2818759098307</v>
+        <v>38.80310266666667</v>
       </c>
       <c r="H5">
-        <v>38.2818759098307</v>
+        <v>116.409308</v>
       </c>
       <c r="I5">
-        <v>0.990324368430518</v>
+        <v>0.9789895780174939</v>
       </c>
       <c r="J5">
-        <v>0.990324368430518</v>
+        <v>0.9822662217176463</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N5">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O5">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P5">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q5">
-        <v>542.6732744967785</v>
+        <v>550.1255168191907</v>
       </c>
       <c r="R5">
-        <v>542.6732744967785</v>
+        <v>4951.129651372717</v>
       </c>
       <c r="S5">
-        <v>0.1279900380234355</v>
+        <v>0.1210064403277349</v>
       </c>
       <c r="T5">
-        <v>0.1279900380234355</v>
+        <v>0.130200915146951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.2818759098307</v>
+        <v>38.80310266666667</v>
       </c>
       <c r="H6">
-        <v>38.2818759098307</v>
+        <v>116.409308</v>
       </c>
       <c r="I6">
-        <v>0.990324368430518</v>
+        <v>0.9789895780174939</v>
       </c>
       <c r="J6">
-        <v>0.990324368430518</v>
+        <v>0.9822662217176463</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N6">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O6">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P6">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q6">
-        <v>888.4019949935835</v>
+        <v>901.3662741638187</v>
       </c>
       <c r="R6">
-        <v>888.4019949935835</v>
+        <v>5408.197644982913</v>
       </c>
       <c r="S6">
-        <v>0.2095305047494093</v>
+        <v>0.1982658882988791</v>
       </c>
       <c r="T6">
-        <v>0.2095305047494093</v>
+        <v>0.1422205299102058</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.374020208832357</v>
+        <v>0.1459843333333333</v>
       </c>
       <c r="H7">
-        <v>0.374020208832357</v>
+        <v>0.437953</v>
       </c>
       <c r="I7">
-        <v>0.009675631569482103</v>
+        <v>0.003683136941776988</v>
       </c>
       <c r="J7">
-        <v>0.009675631569482103</v>
+        <v>0.003695464271636322</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N7">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O7">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P7">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q7">
-        <v>20.098653740761</v>
+        <v>8.177352820665554</v>
       </c>
       <c r="R7">
-        <v>20.098653740761</v>
+        <v>73.59617538598999</v>
       </c>
       <c r="S7">
-        <v>0.004740287715265284</v>
+        <v>0.001798702888486307</v>
       </c>
       <c r="T7">
-        <v>0.004740287715265284</v>
+        <v>0.001935374361266157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.374020208832357</v>
+        <v>0.1459843333333333</v>
       </c>
       <c r="H8">
-        <v>0.374020208832357</v>
+        <v>0.437953</v>
       </c>
       <c r="I8">
-        <v>0.009675631569482103</v>
+        <v>0.003683136941776988</v>
       </c>
       <c r="J8">
-        <v>0.009675631569482103</v>
+        <v>0.003695464271636322</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N8">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P8">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q8">
-        <v>3.021486199943768</v>
+        <v>1.335681322084</v>
       </c>
       <c r="R8">
-        <v>3.021486199943768</v>
+        <v>12.021131898756</v>
       </c>
       <c r="S8">
-        <v>0.0007126205615647731</v>
+        <v>0.0002937984828119672</v>
       </c>
       <c r="T8">
-        <v>0.0007126205615647731</v>
+        <v>0.0003161222760317514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.374020208832357</v>
+        <v>0.1459843333333333</v>
       </c>
       <c r="H9">
-        <v>0.374020208832357</v>
+        <v>0.437953</v>
       </c>
       <c r="I9">
-        <v>0.009675631569482103</v>
+        <v>0.003683136941776988</v>
       </c>
       <c r="J9">
-        <v>0.009675631569482103</v>
+        <v>0.003695464271636322</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N9">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O9">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P9">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q9">
-        <v>3.92235854210119</v>
+        <v>1.770650548295</v>
       </c>
       <c r="R9">
-        <v>3.92235854210119</v>
+        <v>15.935854934655</v>
       </c>
       <c r="S9">
-        <v>0.0009250922102449301</v>
+        <v>0.0003894749713708529</v>
       </c>
       <c r="T9">
-        <v>0.0009250922102449301</v>
+        <v>0.0004190685847957693</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.374020208832357</v>
+        <v>0.1459843333333333</v>
       </c>
       <c r="H10">
-        <v>0.374020208832357</v>
+        <v>0.437953</v>
       </c>
       <c r="I10">
-        <v>0.009675631569482103</v>
+        <v>0.003683136941776988</v>
       </c>
       <c r="J10">
-        <v>0.009675631569482103</v>
+        <v>0.003695464271636322</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N10">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O10">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P10">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q10">
-        <v>5.302006932290944</v>
+        <v>2.069672302042334</v>
       </c>
       <c r="R10">
-        <v>5.302006932290944</v>
+        <v>18.627050718381</v>
       </c>
       <c r="S10">
-        <v>0.001250483671770472</v>
+        <v>0.0004552482483690434</v>
       </c>
       <c r="T10">
-        <v>0.001250483671770472</v>
+        <v>0.0004898395357813878</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1459843333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.437953</v>
+      </c>
+      <c r="I11">
+        <v>0.003683136941776988</v>
+      </c>
+      <c r="J11">
+        <v>0.003695464271636322</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>23.229232</v>
+      </c>
+      <c r="N11">
+        <v>46.458464</v>
+      </c>
+      <c r="O11">
+        <v>0.2025209386808572</v>
+      </c>
+      <c r="P11">
+        <v>0.1447881712368271</v>
+      </c>
+      <c r="Q11">
+        <v>3.391103947365333</v>
+      </c>
+      <c r="R11">
+        <v>20.346623684192</v>
+      </c>
+      <c r="S11">
+        <v>0.0007459123507388174</v>
+      </c>
+      <c r="T11">
+        <v>0.0005350595137612564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.236847</v>
+      </c>
+      <c r="H12">
+        <v>0.7105410000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.005975572277726522</v>
+      </c>
+      <c r="J12">
+        <v>0.005995572308062153</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>56.01527666666667</v>
+      </c>
+      <c r="N12">
+        <v>168.04583</v>
+      </c>
+      <c r="O12">
+        <v>0.4883616647765734</v>
+      </c>
+      <c r="P12">
+        <v>0.5237161609491596</v>
+      </c>
+      <c r="Q12">
+        <v>13.26705023267</v>
+      </c>
+      <c r="R12">
+        <v>119.40345209403</v>
+      </c>
+      <c r="S12">
+        <v>0.002918240425543265</v>
+      </c>
+      <c r="T12">
+        <v>0.003139978111871403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.236847</v>
+      </c>
+      <c r="H13">
+        <v>0.7105410000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.005975572277726522</v>
+      </c>
+      <c r="J13">
+        <v>0.005995572308062153</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.149483999999999</v>
+      </c>
+      <c r="N13">
+        <v>27.448452</v>
+      </c>
+      <c r="O13">
+        <v>0.0797685471532371</v>
+      </c>
+      <c r="P13">
+        <v>0.08554331818550501</v>
+      </c>
+      <c r="Q13">
+        <v>2.167027836948</v>
+      </c>
+      <c r="R13">
+        <v>19.503250532532</v>
+      </c>
+      <c r="S13">
+        <v>0.0004766627190034044</v>
+      </c>
+      <c r="T13">
+        <v>0.0005128811496527635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.236847</v>
+      </c>
+      <c r="H14">
+        <v>0.7105410000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.005975572277726522</v>
+      </c>
+      <c r="J14">
+        <v>0.005995572308062153</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.129045</v>
+      </c>
+      <c r="N14">
+        <v>36.387135</v>
+      </c>
+      <c r="O14">
+        <v>0.1057454494708373</v>
+      </c>
+      <c r="P14">
+        <v>0.1134007945935868</v>
+      </c>
+      <c r="Q14">
+        <v>2.872727921115</v>
+      </c>
+      <c r="R14">
+        <v>25.854551290035</v>
+      </c>
+      <c r="S14">
+        <v>0.0006318895763536664</v>
+      </c>
+      <c r="T14">
+        <v>0.0006799026637775531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.236847</v>
+      </c>
+      <c r="H15">
+        <v>0.7105410000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.005975572277726522</v>
+      </c>
+      <c r="J15">
+        <v>0.005995572308062153</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.177359</v>
+      </c>
+      <c r="N15">
+        <v>42.532077</v>
+      </c>
+      <c r="O15">
+        <v>0.1236033999184949</v>
+      </c>
+      <c r="P15">
+        <v>0.1325515550349214</v>
+      </c>
+      <c r="Q15">
+        <v>3.357864947073001</v>
+      </c>
+      <c r="R15">
+        <v>30.22078452365701</v>
+      </c>
+      <c r="S15">
+        <v>0.0007386010499857028</v>
+      </c>
+      <c r="T15">
+        <v>0.0007947224327579515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.236847</v>
+      </c>
+      <c r="H16">
+        <v>0.7105410000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.005975572277726522</v>
+      </c>
+      <c r="J16">
+        <v>0.005995572308062153</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>23.229232</v>
+      </c>
+      <c r="N16">
+        <v>46.458464</v>
+      </c>
+      <c r="O16">
+        <v>0.2025209386808572</v>
+      </c>
+      <c r="P16">
+        <v>0.1447881712368271</v>
+      </c>
+      <c r="Q16">
+        <v>5.501773911504</v>
+      </c>
+      <c r="R16">
+        <v>33.010643469024</v>
+      </c>
+      <c r="S16">
+        <v>0.001210178506840483</v>
+      </c>
+      <c r="T16">
+        <v>0.0008680879500024818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.053283</v>
+      </c>
+      <c r="H17">
+        <v>0.159849</v>
+      </c>
+      <c r="I17">
+        <v>0.001344312647718157</v>
+      </c>
+      <c r="J17">
+        <v>0.001348812014889257</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>56.01527666666667</v>
+      </c>
+      <c r="N17">
+        <v>168.04583</v>
+      </c>
+      <c r="O17">
+        <v>0.4883616647765734</v>
+      </c>
+      <c r="P17">
+        <v>0.5237161609491596</v>
+      </c>
+      <c r="Q17">
+        <v>2.98466198663</v>
+      </c>
+      <c r="R17">
+        <v>26.86195787967</v>
+      </c>
+      <c r="S17">
+        <v>0.0006565107626198422</v>
+      </c>
+      <c r="T17">
+        <v>0.0007063946502799021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.374020208832357</v>
-      </c>
-      <c r="H11">
-        <v>0.374020208832357</v>
-      </c>
-      <c r="I11">
-        <v>0.009675631569482103</v>
-      </c>
-      <c r="J11">
-        <v>0.009675631569482103</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>23.2068563485794</v>
-      </c>
-      <c r="N11">
-        <v>23.2068563485794</v>
-      </c>
-      <c r="O11">
-        <v>0.2115776521600459</v>
-      </c>
-      <c r="P11">
-        <v>0.2115776521600459</v>
-      </c>
-      <c r="Q11">
-        <v>8.679833257838176</v>
-      </c>
-      <c r="R11">
-        <v>8.679833257838176</v>
-      </c>
-      <c r="S11">
-        <v>0.002047147410636643</v>
-      </c>
-      <c r="T11">
-        <v>0.002047147410636643</v>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.053283</v>
+      </c>
+      <c r="H18">
+        <v>0.159849</v>
+      </c>
+      <c r="I18">
+        <v>0.001344312647718157</v>
+      </c>
+      <c r="J18">
+        <v>0.001348812014889257</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.149483999999999</v>
+      </c>
+      <c r="N18">
+        <v>27.448452</v>
+      </c>
+      <c r="O18">
+        <v>0.0797685471532371</v>
+      </c>
+      <c r="P18">
+        <v>0.08554331818550501</v>
+      </c>
+      <c r="Q18">
+        <v>0.487511955972</v>
+      </c>
+      <c r="R18">
+        <v>4.387607603748</v>
+      </c>
+      <c r="S18">
+        <v>0.0001072338668281988</v>
+      </c>
+      <c r="T18">
+        <v>0.0001153818553621038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.053283</v>
+      </c>
+      <c r="H19">
+        <v>0.159849</v>
+      </c>
+      <c r="I19">
+        <v>0.001344312647718157</v>
+      </c>
+      <c r="J19">
+        <v>0.001348812014889257</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.129045</v>
+      </c>
+      <c r="N19">
+        <v>36.387135</v>
+      </c>
+      <c r="O19">
+        <v>0.1057454494708373</v>
+      </c>
+      <c r="P19">
+        <v>0.1134007945935868</v>
+      </c>
+      <c r="Q19">
+        <v>0.6462719047350001</v>
+      </c>
+      <c r="R19">
+        <v>5.816447142615001</v>
+      </c>
+      <c r="S19">
+        <v>0.0001421549451622879</v>
+      </c>
+      <c r="T19">
+        <v>0.0001529563542458185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.053283</v>
+      </c>
+      <c r="H20">
+        <v>0.159849</v>
+      </c>
+      <c r="I20">
+        <v>0.001344312647718157</v>
+      </c>
+      <c r="J20">
+        <v>0.001348812014889257</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.177359</v>
+      </c>
+      <c r="N20">
+        <v>42.532077</v>
+      </c>
+      <c r="O20">
+        <v>0.1236033999184949</v>
+      </c>
+      <c r="P20">
+        <v>0.1325515550349214</v>
+      </c>
+      <c r="Q20">
+        <v>0.7554122195970001</v>
+      </c>
+      <c r="R20">
+        <v>6.798709976373001</v>
+      </c>
+      <c r="S20">
+        <v>0.0001661616138113981</v>
+      </c>
+      <c r="T20">
+        <v>0.0001787871300233566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.053283</v>
+      </c>
+      <c r="H21">
+        <v>0.159849</v>
+      </c>
+      <c r="I21">
+        <v>0.001344312647718157</v>
+      </c>
+      <c r="J21">
+        <v>0.001348812014889257</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>23.229232</v>
+      </c>
+      <c r="N21">
+        <v>46.458464</v>
+      </c>
+      <c r="O21">
+        <v>0.2025209386808572</v>
+      </c>
+      <c r="P21">
+        <v>0.1447881712368271</v>
+      </c>
+      <c r="Q21">
+        <v>1.237723168656</v>
+      </c>
+      <c r="R21">
+        <v>7.426339011936001</v>
+      </c>
+      <c r="S21">
+        <v>0.0002722514592964296</v>
+      </c>
+      <c r="T21">
+        <v>0.0001952920249780755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.396652</v>
+      </c>
+      <c r="H22">
+        <v>0.793304</v>
+      </c>
+      <c r="I22">
+        <v>0.01000740011528447</v>
+      </c>
+      <c r="J22">
+        <v>0.006693929687765996</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>56.01527666666667</v>
+      </c>
+      <c r="N22">
+        <v>168.04583</v>
+      </c>
+      <c r="O22">
+        <v>0.4883616647765734</v>
+      </c>
+      <c r="P22">
+        <v>0.5237161609491596</v>
+      </c>
+      <c r="Q22">
+        <v>22.21857152038667</v>
+      </c>
+      <c r="R22">
+        <v>133.31142912232</v>
+      </c>
+      <c r="S22">
+        <v>0.004887230580385595</v>
+      </c>
+      <c r="T22">
+        <v>0.003505719157740414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.396652</v>
+      </c>
+      <c r="H23">
+        <v>0.793304</v>
+      </c>
+      <c r="I23">
+        <v>0.01000740011528447</v>
+      </c>
+      <c r="J23">
+        <v>0.006693929687765996</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.149483999999999</v>
+      </c>
+      <c r="N23">
+        <v>27.448452</v>
+      </c>
+      <c r="O23">
+        <v>0.0797685471532371</v>
+      </c>
+      <c r="P23">
+        <v>0.08554331818550501</v>
+      </c>
+      <c r="Q23">
+        <v>3.629161127568</v>
+      </c>
+      <c r="R23">
+        <v>21.774966765408</v>
+      </c>
+      <c r="S23">
+        <v>0.0007982757679773793</v>
+      </c>
+      <c r="T23">
+        <v>0.0005726209571919647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.396652</v>
+      </c>
+      <c r="H24">
+        <v>0.793304</v>
+      </c>
+      <c r="I24">
+        <v>0.01000740011528447</v>
+      </c>
+      <c r="J24">
+        <v>0.006693929687765996</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>12.129045</v>
+      </c>
+      <c r="N24">
+        <v>36.387135</v>
+      </c>
+      <c r="O24">
+        <v>0.1057454494708373</v>
+      </c>
+      <c r="P24">
+        <v>0.1134007945935868</v>
+      </c>
+      <c r="Q24">
+        <v>4.81100995734</v>
+      </c>
+      <c r="R24">
+        <v>28.86605974404</v>
+      </c>
+      <c r="S24">
+        <v>0.001058237023225265</v>
+      </c>
+      <c r="T24">
+        <v>0.000759096945546264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.396652</v>
+      </c>
+      <c r="H25">
+        <v>0.793304</v>
+      </c>
+      <c r="I25">
+        <v>0.01000740011528447</v>
+      </c>
+      <c r="J25">
+        <v>0.006693929687765996</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>14.177359</v>
+      </c>
+      <c r="N25">
+        <v>42.532077</v>
+      </c>
+      <c r="O25">
+        <v>0.1236033999184949</v>
+      </c>
+      <c r="P25">
+        <v>0.1325515550349214</v>
+      </c>
+      <c r="Q25">
+        <v>5.623477802068001</v>
+      </c>
+      <c r="R25">
+        <v>33.740866812408</v>
+      </c>
+      <c r="S25">
+        <v>0.001236948678593898</v>
+      </c>
+      <c r="T25">
+        <v>0.0008872907894078089</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.396652</v>
+      </c>
+      <c r="H26">
+        <v>0.793304</v>
+      </c>
+      <c r="I26">
+        <v>0.01000740011528447</v>
+      </c>
+      <c r="J26">
+        <v>0.006693929687765996</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>23.229232</v>
+      </c>
+      <c r="N26">
+        <v>46.458464</v>
+      </c>
+      <c r="O26">
+        <v>0.2025209386808572</v>
+      </c>
+      <c r="P26">
+        <v>0.1447881712368271</v>
+      </c>
+      <c r="Q26">
+        <v>9.213921331264</v>
+      </c>
+      <c r="R26">
+        <v>36.855685325056</v>
+      </c>
+      <c r="S26">
+        <v>0.002026708065102329</v>
+      </c>
+      <c r="T26">
+        <v>0.0009692018378795436</v>
       </c>
     </row>
   </sheetData>
